--- a/biology/Médecine/Santé_en_Capitale-Nationale/Santé_en_Capitale-Nationale.xlsx
+++ b/biology/Médecine/Santé_en_Capitale-Nationale/Santé_en_Capitale-Nationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Capitale-Nationale</t>
+          <t>Santé_en_Capitale-Nationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article concerne la santé en Capitale-Nationale, une région administrative du Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Capitale-Nationale</t>
+          <t>Santé_en_Capitale-Nationale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hôpitaux
-9 hôpitaux de la région sont situés dans la ville de Québec :
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 hôpitaux de la région sont situés dans la ville de Québec :
 Centre hospitalier universitaire de Québec (hôpitaux indépendants du CISSS régional)
 Centre hospitalier de l'Université Laval
 Hôtel-Dieu de Québec
@@ -530,9 +547,43 @@
 Hôpital de La Malbaie
 Hôpital de Sainte-Anne-de-Beaupré
 Un seul se trouve à l'ouest de la ville de Québec :
-Hôpital régional de Portneuf
-CLSC
-On retrouve des centres locaux de services communautaires (CLSC) dans les localités suivantes :
+Hôpital régional de Portneuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Santé_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CLSC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve des centres locaux de services communautaires (CLSC) dans les localités suivantes :
 Beaupré
 Baie-Saint-Paul
 Baie-Sainte-Catherine
@@ -549,35 +600,9 @@
 Saint-Raymond
 Saint-Siméon
 Saint-Ubalde
-Enseignement</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_en_Capitale-Nationale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Capitale-Nationale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Capitale-Nationale</t>
+          <t>Santé_en_Capitale-Nationale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,20 +625,122 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Organisation
-La région est desservie par le Centre intégré universitaire de santé et de services sociaux  de la Capitale-Nationale.
-Présidence-direction générale
-Depuis le 1er avril 2015 : Michel Delamarre[1]
-Direction de santé publique
-Le directeur de la santé publique de la Capitale-Nationale a le rôle d'informer la population sur différentes situations concernant l'état de santé (mode de vie sain, inégalités sociales de santé, etc) et d'instaurer des consignes pour protéger la santé publique (épidémie, grippe).
-septembre 2000 - 29 juin 2020 : François Desbiens[2]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région est desservie par le Centre intégré universitaire de santé et de services sociaux  de la Capitale-Nationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présidence-direction générale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Depuis le 1er avril 2015 : Michel Delamarre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Capitale-Nationale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Direction de santé publique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le directeur de la santé publique de la Capitale-Nationale a le rôle d'informer la population sur différentes situations concernant l'état de santé (mode de vie sain, inégalités sociales de santé, etc) et d'instaurer des consignes pour protéger la santé publique (épidémie, grippe).
+septembre 2000 - 29 juin 2020 : François Desbiens
 29 juin 2020 - 25 septembre 2020 : Jacques Girard (intérim)
-Depuis le 25 septembre 2020 : André Dontigny[3]</t>
+Depuis le 25 septembre 2020 : André Dontigny</t>
         </is>
       </c>
     </row>
